--- a/use_cases/LWR_FT_2023/train/ARMA_stats.xlsx
+++ b/use_cases/LWR_FT_2023/train/ARMA_stats.xlsx
@@ -12,6 +12,7 @@
     <sheet name="cooper_2014_2021_DA" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="davis_besse_2012_2021_DA" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Braidwood_2012_2021_DA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="stp_1_2012_2021_DA" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +578,32 @@
       </c>
       <c r="C11" t="n">
         <v>25.69898576871338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.612315631225</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>43.86100000000005</v>
+      </c>
+      <c r="C13" t="n">
+        <v>49.89261584221002</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,6 +952,32 @@
       </c>
       <c r="C11" t="n">
         <v>26.60720430912557</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.905250000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.894291399631002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>37.04374</v>
+      </c>
+      <c r="C13" t="n">
+        <v>38.13790278062</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1139,32 @@
       </c>
       <c r="C11" t="n">
         <v>10.79345332416379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.47662419094</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48.24682219747</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,6 +1328,219 @@
         <v>10.81196311074452</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.47406601129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48.25324353378002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>historical price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>synthetic price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87600</v>
+      </c>
+      <c r="C2" t="n">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>41.19487237442918</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41.57081497900333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>290.6532921201257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>290.5229687363961</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.82328384095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24.39408968585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.35640607415</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8996.83</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8996.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>kurtosis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>699.613696730308</v>
+      </c>
+      <c r="C10" t="n">
+        <v>696.7194856198595</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>skewness</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25.76930790426077</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.69898576871338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.612315631225</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>43.86100000000005</v>
+      </c>
+      <c r="C13" t="n">
+        <v>49.89261584221002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
